--- a/Analysis/Analysis.xlsx
+++ b/Analysis/Analysis.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/57f6038beb1cecb6/Documents/Projects/CNC Router/Analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2082" documentId="8_{56DBD007-8FD7-4FEC-9BF2-C34758458655}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5622A34A-E72A-4CD6-85C2-7342C29B575B}"/>
+  <xr:revisionPtr revIDLastSave="2101" documentId="8_{56DBD007-8FD7-4FEC-9BF2-C34758458655}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2277792C-B69D-4FFB-9CCA-5A8A8A13B1BA}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="23640" firstSheet="5" activeTab="17" xr2:uid="{45492484-CC5D-446B-868C-1C19DE90D7AE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="23640" firstSheet="5" activeTab="17" xr2:uid="{45492484-CC5D-446B-868C-1C19DE90D7AE}"/>
   </bookViews>
   <sheets>
     <sheet name="Axis Forces" sheetId="1" r:id="rId1"/>
@@ -165,7 +165,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1617" uniqueCount="713">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1622" uniqueCount="718">
   <si>
     <t>Ball Screw Nominal Diameter</t>
   </si>
@@ -2304,6 +2304,21 @@
   </si>
   <si>
     <t>Z Motor</t>
+  </si>
+  <si>
+    <t>Machine Stiffness</t>
+  </si>
+  <si>
+    <t>N/um</t>
+  </si>
+  <si>
+    <t>Servo Motor</t>
+  </si>
+  <si>
+    <t>Spindle Length</t>
+  </si>
+  <si>
+    <t>Length (ft)</t>
   </si>
 </sst>
 </file>
@@ -2804,6 +2819,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2813,7 +2829,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Calculation" xfId="3" builtinId="22"/>
@@ -34855,10 +34870,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FE1CCB3-CD7F-4838-9C86-8B8B5E68B13B}">
-  <dimension ref="A1:O77"/>
+  <dimension ref="A1:O78"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="N57" sqref="N57"/>
+    <sheetView topLeftCell="A16" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="L78" sqref="L78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="2" x14ac:dyDescent="0.25"/>
@@ -34870,9 +34885,7 @@
     <col min="6" max="8" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="21.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="20" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20" customWidth="1"/>
-    <col min="12" max="13" width="20" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="20" customWidth="1"/>
+    <col min="11" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
@@ -37144,7 +37157,7 @@
         <v>-6.1404077522847163E-2</v>
       </c>
       <c r="J42" s="15">
-        <f t="shared" si="68"/>
+        <f>(J4*J8^3/(48*J34*J15))</f>
         <v>-3.1561244899833793E-2</v>
       </c>
       <c r="K42" s="15">
@@ -37928,7 +37941,7 @@
         <v>-2.8773479473089014E-2</v>
       </c>
       <c r="J56" s="110">
-        <f t="shared" si="102"/>
+        <f>J4*(J49-J10/2)^3/(3*J34*J33)</f>
         <v>-8.0702312428653236E-2</v>
       </c>
       <c r="K56" s="110">
@@ -38040,7 +38053,7 @@
         <v>-6.4069285772550152E-2</v>
       </c>
       <c r="J58" s="15">
-        <f t="shared" si="105"/>
+        <f>J43+J51</f>
         <v>-5.700242287889469E-2</v>
       </c>
       <c r="K58" s="15">
@@ -38997,6 +39010,62 @@
       <c r="O77" s="3">
         <f t="shared" ref="O77" si="138">O76/2</f>
         <v>1800</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>713</v>
+      </c>
+      <c r="B78" t="s">
+        <v>714</v>
+      </c>
+      <c r="C78">
+        <f>9.8*C67</f>
+        <v>11.052330641473798</v>
+      </c>
+      <c r="D78">
+        <f t="shared" ref="D78:N78" si="139">9.8*D67</f>
+        <v>2.3975369922741989</v>
+      </c>
+      <c r="E78">
+        <f t="shared" si="139"/>
+        <v>3.4537149345871678</v>
+      </c>
+      <c r="F78">
+        <f t="shared" si="139"/>
+        <v>7.0194346484901819</v>
+      </c>
+      <c r="G78">
+        <f t="shared" si="139"/>
+        <v>0</v>
+      </c>
+      <c r="H78" t="e">
+        <f t="shared" si="139"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I78">
+        <f t="shared" si="139"/>
+        <v>4.6947206910127992</v>
+      </c>
+      <c r="J78">
+        <f t="shared" si="139"/>
+        <v>5.2767476606011163</v>
+      </c>
+      <c r="K78">
+        <f t="shared" si="139"/>
+        <v>11.945720572939139</v>
+      </c>
+      <c r="L78">
+        <f t="shared" si="139"/>
+        <v>7.2769717200501978</v>
+      </c>
+      <c r="M78">
+        <f t="shared" si="139"/>
+        <v>17.596353892762679</v>
+      </c>
+      <c r="N78">
+        <f t="shared" si="139"/>
+        <v>13.322214741727075</v>
       </c>
     </row>
   </sheetData>
@@ -44448,10 +44517,10 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0541B6DF-B3B3-4761-9301-4F455855997F}">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -44459,72 +44528,90 @@
     <col min="1" max="1" width="16.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>695</v>
       </c>
       <c r="C1" t="s">
+        <v>717</v>
+      </c>
+      <c r="D1" t="s">
         <v>696</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>697</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>147</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>698</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H1" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="47" t="s">
         <v>699</v>
       </c>
       <c r="B2" s="47">
-        <f>SUM(C2:F2)</f>
+        <f>SUM(D2:G2)</f>
         <v>1.55</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="124">
+        <f>B2*1000/25.4/12</f>
+        <v>5.0853018372703414</v>
+      </c>
+      <c r="D2">
         <v>1</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="47" t="s">
         <v>700</v>
       </c>
       <c r="B3" s="47">
-        <f t="shared" ref="B3:B15" si="0">SUM(C3:F3)</f>
+        <f t="shared" ref="B3:B15" si="0">SUM(D3:G3)</f>
         <v>3.1</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="124">
+        <f t="shared" ref="C3:C16" si="1">B3*1000/25.4/12</f>
+        <v>10.170603674540683</v>
+      </c>
+      <c r="D3">
         <v>1</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>2.1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="127" t="s">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="124" t="s">
         <v>701</v>
       </c>
       <c r="B4" s="47">
         <f t="shared" si="0"/>
         <v>2.5</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="124">
+        <f t="shared" si="1"/>
+        <v>8.2020997375328086</v>
+      </c>
+      <c r="D4">
         <v>1</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>0.9</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>0.6</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="121" t="s">
         <v>702</v>
       </c>
@@ -44532,17 +44619,21 @@
         <f t="shared" si="0"/>
         <v>2.4</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="124">
+        <f t="shared" si="1"/>
+        <v>7.8740157480314963</v>
+      </c>
+      <c r="D5">
         <v>1</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>0.9</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>0.5</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="121" t="s">
         <v>703</v>
       </c>
@@ -44550,17 +44641,21 @@
         <f t="shared" si="0"/>
         <v>2.4</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="124">
+        <f t="shared" si="1"/>
+        <v>7.8740157480314963</v>
+      </c>
+      <c r="D6">
         <v>1</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>0.9</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>0.5</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="121" t="s">
         <v>704</v>
       </c>
@@ -44568,20 +44663,24 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="124">
+        <f t="shared" si="1"/>
+        <v>16.404199475065617</v>
+      </c>
+      <c r="D7">
         <v>1</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>0.9</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>2.6</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>0.5</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="121" t="s">
         <v>705</v>
       </c>
@@ -44589,41 +44688,49 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="124">
+        <f t="shared" si="1"/>
+        <v>16.404199475065617</v>
+      </c>
+      <c r="D8">
         <v>1</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>0.9</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>2.6</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>0.5</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="127" t="s">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="124" t="s">
         <v>706</v>
       </c>
       <c r="B9" s="47">
         <f t="shared" si="0"/>
         <v>4.9000000000000004</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="124">
+        <f t="shared" si="1"/>
+        <v>16.076115485564305</v>
+      </c>
+      <c r="D9">
         <v>1</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>0.9</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>2.6</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>0.4</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="121" t="s">
         <v>707</v>
       </c>
@@ -44631,20 +44738,24 @@
         <f t="shared" si="0"/>
         <v>4.9000000000000004</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="124">
+        <f t="shared" si="1"/>
+        <v>16.076115485564305</v>
+      </c>
+      <c r="D10">
         <v>1</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>0.9</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>2.6</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>0.4</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="121" t="s">
         <v>708</v>
       </c>
@@ -44652,20 +44763,24 @@
         <f t="shared" si="0"/>
         <v>5.05</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="124">
+        <f t="shared" si="1"/>
+        <v>16.568241469816275</v>
+      </c>
+      <c r="D11">
         <v>1</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>0.9</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>2.6</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>709</v>
       </c>
@@ -44673,14 +44788,18 @@
         <f t="shared" si="0"/>
         <v>1.8</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="124">
+        <f t="shared" si="1"/>
+        <v>5.9055118110236222</v>
+      </c>
+      <c r="D12">
         <v>1</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>0.8</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>710</v>
       </c>
@@ -44688,14 +44807,18 @@
         <f t="shared" si="0"/>
         <v>3.4</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="124">
+        <f t="shared" si="1"/>
+        <v>11.15485564304462</v>
+      </c>
+      <c r="D13">
         <v>1</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>2.4</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="121" t="s">
         <v>711</v>
       </c>
@@ -44703,17 +44826,21 @@
         <f t="shared" si="0"/>
         <v>2.4</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="124">
+        <f t="shared" si="1"/>
+        <v>7.8740157480314963</v>
+      </c>
+      <c r="D14">
         <v>1</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>0.9</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>0.5</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="121" t="s">
         <v>712</v>
       </c>
@@ -44721,21 +44848,51 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="124">
+        <f t="shared" si="1"/>
+        <v>16.404199475065617</v>
+      </c>
+      <c r="D15">
         <v>1</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>0.9</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>2.6</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>0.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="121" t="s">
+        <v>715</v>
+      </c>
+      <c r="B16" s="47">
+        <f t="shared" ref="B16" si="2">SUM(D16:G16)</f>
+        <v>5.25</v>
+      </c>
+      <c r="C16" s="124">
+        <f t="shared" si="1"/>
+        <v>17.2244094488189</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>0.9</v>
+      </c>
+      <c r="F16">
+        <v>2.6</v>
+      </c>
+      <c r="G16">
+        <v>0.75</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -46620,7 +46777,7 @@
   <dimension ref="A1:Y31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+      <selection activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -46647,37 +46804,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="C1" s="124" t="s">
+      <c r="C1" s="125" t="s">
         <v>164</v>
       </c>
-      <c r="D1" s="125"/>
-      <c r="E1" s="125"/>
-      <c r="F1" s="125"/>
-      <c r="G1" s="126"/>
-      <c r="H1" s="124" t="s">
+      <c r="D1" s="126"/>
+      <c r="E1" s="126"/>
+      <c r="F1" s="126"/>
+      <c r="G1" s="127"/>
+      <c r="H1" s="125" t="s">
         <v>53</v>
       </c>
-      <c r="I1" s="125"/>
-      <c r="J1" s="125"/>
-      <c r="K1" s="125"/>
-      <c r="L1" s="125"/>
-      <c r="M1" s="126"/>
-      <c r="N1" s="124" t="s">
+      <c r="I1" s="126"/>
+      <c r="J1" s="126"/>
+      <c r="K1" s="126"/>
+      <c r="L1" s="126"/>
+      <c r="M1" s="127"/>
+      <c r="N1" s="125" t="s">
         <v>67</v>
       </c>
-      <c r="O1" s="125"/>
-      <c r="P1" s="125"/>
-      <c r="Q1" s="125"/>
-      <c r="R1" s="125"/>
-      <c r="S1" s="126"/>
-      <c r="T1" s="124" t="s">
+      <c r="O1" s="126"/>
+      <c r="P1" s="126"/>
+      <c r="Q1" s="126"/>
+      <c r="R1" s="126"/>
+      <c r="S1" s="127"/>
+      <c r="T1" s="125" t="s">
         <v>54</v>
       </c>
-      <c r="U1" s="125"/>
-      <c r="V1" s="125"/>
-      <c r="W1" s="125"/>
-      <c r="X1" s="125"/>
-      <c r="Y1" s="125"/>
+      <c r="U1" s="126"/>
+      <c r="V1" s="126"/>
+      <c r="W1" s="126"/>
+      <c r="X1" s="126"/>
+      <c r="Y1" s="126"/>
     </row>
     <row r="2" spans="1:25" s="14" customFormat="1" ht="89.25" x14ac:dyDescent="0.25">
       <c r="C2" s="17" t="s">
